--- a/FlickerFaces.data/FF4_7/FF4_7_MarkupXLS_2000.xlsx
+++ b/FlickerFaces.data/FF4_7/FF4_7_MarkupXLS_2000.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="16">
   <si>
     <t>Tr</t>
   </si>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -91,14 +91,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,28 +130,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -157,7 +165,7 @@
       <c r="C2">
         <v>6840</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2">
@@ -183,7 +191,7 @@
       <c r="C3">
         <v>10173</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3">
@@ -209,7 +217,7 @@
       <c r="C4">
         <v>17473</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4">
@@ -235,7 +243,7 @@
       <c r="C5">
         <v>20807</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5">
@@ -255,14 +263,20 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>29240</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -275,14 +289,20 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>32573</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -296,12 +316,12 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>41439</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E8">
@@ -322,12 +342,12 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>44772</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9">
@@ -348,12 +368,12 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>53138</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E10">
@@ -374,12 +394,12 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>56472</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11">
@@ -400,12 +420,12 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>64721</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E12">
@@ -426,12 +446,12 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>68055</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E13">
@@ -452,12 +472,12 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>76471</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E14">
@@ -478,12 +498,12 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>79804</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E15">
@@ -504,12 +524,12 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>89138</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E16">
@@ -530,12 +550,12 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>92471</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E17">
@@ -556,12 +576,12 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>102321</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18">
@@ -582,12 +602,12 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>105654</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E19">
@@ -608,12 +628,12 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>114504</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E20">
@@ -634,12 +654,12 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>117837</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E21">
@@ -660,12 +680,12 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>127686</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E22">
@@ -686,12 +706,12 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>131020</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E23">
@@ -712,12 +732,12 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>139819</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E24">
@@ -738,12 +758,12 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>143153</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E25">
@@ -764,12 +784,12 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>152203</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E26">
@@ -790,12 +810,12 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>155536</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E27">
@@ -816,12 +836,12 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>164235</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E28">
@@ -842,12 +862,12 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>167569</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E29">
@@ -868,12 +888,12 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>176185</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E30">
@@ -894,12 +914,12 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>179518</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E31">
@@ -920,12 +940,12 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>188485</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E32">
@@ -946,12 +966,12 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>191819</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E33">
@@ -971,14 +991,20 @@
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>200602</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -991,14 +1017,20 @@
       <c r="A35">
         <v>17</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>203935</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1011,14 +1043,20 @@
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>211768</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1031,14 +1069,20 @@
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>215101</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1052,12 +1096,12 @@
         <v>19</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>223383</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E38">
@@ -1078,12 +1122,12 @@
         <v>19</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>226717</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E39">
@@ -1104,12 +1148,12 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>234167</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E40">
@@ -1130,12 +1174,12 @@
         <v>20</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>237500</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E41">
@@ -1156,12 +1200,12 @@
         <v>21</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>251550</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E42">
@@ -1182,12 +1226,12 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>254883</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E43">
@@ -1224,7 +1268,7 @@
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E45">
@@ -1245,12 +1289,12 @@
         <v>23</v>
       </c>
       <c r="B46">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>273599</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E46">
@@ -1271,12 +1315,12 @@
         <v>23</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>276932</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E47">
@@ -1296,14 +1340,20 @@
       <c r="A48">
         <v>24</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>284183</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1316,14 +1366,20 @@
       <c r="A49">
         <v>24</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>287516</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1337,12 +1393,12 @@
         <v>25</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C50">
         <v>295265</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E50">
@@ -1363,12 +1419,12 @@
         <v>25</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>298599</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E51">
@@ -1389,12 +1445,12 @@
         <v>26</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>306131</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E52">
@@ -1415,12 +1471,12 @@
         <v>26</v>
       </c>
       <c r="B53">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>309465</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E53">
@@ -1441,12 +1497,12 @@
         <v>27</v>
       </c>
       <c r="B54">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>317981</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E54">
@@ -1467,12 +1523,12 @@
         <v>27</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>321314</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E55">
@@ -1493,12 +1549,12 @@
         <v>28</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>330681</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E56">
@@ -1519,12 +1575,12 @@
         <v>28</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>334014</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E57">
@@ -1545,12 +1601,12 @@
         <v>29</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>342797</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E58">
@@ -1571,12 +1627,12 @@
         <v>29</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>346130</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E59">
@@ -1597,12 +1653,12 @@
         <v>30</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>353697</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E60">
@@ -1623,12 +1679,12 @@
         <v>30</v>
       </c>
       <c r="B61">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>357029</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E61">
@@ -1649,12 +1705,12 @@
         <v>31</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>364780</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E62">
@@ -1675,12 +1731,12 @@
         <v>31</v>
       </c>
       <c r="B63">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C63">
         <v>368113</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E63">
@@ -1700,14 +1756,20 @@
       <c r="A64">
         <v>32</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>376880</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1720,14 +1782,20 @@
       <c r="A65">
         <v>32</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="B65">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>380213</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1741,12 +1809,12 @@
         <v>33</v>
       </c>
       <c r="B66">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>389479</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E66">
@@ -1767,12 +1835,12 @@
         <v>33</v>
       </c>
       <c r="B67">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>392812</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E67">
@@ -1793,12 +1861,12 @@
         <v>34</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C68">
         <v>401161</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E68">
@@ -1819,12 +1887,12 @@
         <v>34</v>
       </c>
       <c r="B69">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>404495</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E69">
@@ -1845,12 +1913,12 @@
         <v>35</v>
       </c>
       <c r="B70">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>412844</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E70">
@@ -1871,12 +1939,12 @@
         <v>35</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>416178</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E71">
@@ -1897,12 +1965,12 @@
         <v>36</v>
       </c>
       <c r="B72">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>424711</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E72">
@@ -1923,12 +1991,12 @@
         <v>36</v>
       </c>
       <c r="B73">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>428044</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E73">
@@ -1949,12 +2017,12 @@
         <v>37</v>
       </c>
       <c r="B74">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C74">
         <v>435577</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E74">
@@ -1975,12 +2043,12 @@
         <v>37</v>
       </c>
       <c r="B75">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>438910</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E75">
@@ -2001,12 +2069,12 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>445943</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E76">
@@ -2027,12 +2095,12 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>449277</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E77">
@@ -2053,12 +2121,12 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C78">
         <v>456510</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E78">
@@ -2079,12 +2147,12 @@
         <v>39</v>
       </c>
       <c r="B79">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C79">
         <v>459843</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E79">
@@ -2105,12 +2173,12 @@
         <v>40</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C80">
         <v>468992</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E80">
@@ -2131,12 +2199,12 @@
         <v>40</v>
       </c>
       <c r="B81">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C81">
         <v>472327</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E81">
